--- a/data/trans_camb/IP18A05-Edad-trans_camb.xlsx
+++ b/data/trans_camb/IP18A05-Edad-trans_camb.xlsx
@@ -838,7 +838,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>5/9</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,41</t>
+          <t>1,92</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,51</t>
+          <t>0,31</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>5,48</t>
+          <t>2,72</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-0,51</t>
+          <t>1,66</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-0,5</t>
+          <t>1,73</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>2,1</t>
+          <t>1,69</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-0,46</t>
+          <t>1,78</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,52</t>
+          <t>0,99</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>4,08</t>
+          <t>2,23</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,95; 0,63</t>
+          <t>0,12; 4,07</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,4; 3,67</t>
+          <t>-1,15; 1,79</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,01; 14,76</t>
+          <t>-0,69; 10,23</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,21; 0,8</t>
+          <t>0,62; 3,68</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-2,16; 0,8</t>
+          <t>0,58; 3,46</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-1,01; 10,8</t>
+          <t>0,0; 9,24</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-1,59; 0,47</t>
+          <t>0,66; 3,16</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-0,71; 1,92</t>
+          <t>0,11; 2,2</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,91; 10,18</t>
+          <t>0,17; 6,31</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-43,53%</t>
+          <t>274,12%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>159,09%</t>
+          <t>44,42%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>577,94%</t>
+          <t>388,82%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-45,88%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-45,09%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>190,75%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-44,83%</t>
+          <t>489,17%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>50,72%</t>
+          <t>272,86%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>398,18%</t>
+          <t>612,23%</t>
         </is>
       </c>
     </row>
@@ -1007,17 +1007,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-53,96; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-65,03; 1133,57</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-24,98; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1037,24 +1037,24 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-89,68; 126,19</t>
+          <t>21,54; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-53,49; 409,76</t>
+          <t>-32,01; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>25,56; 2048,62</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>10/15</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>1,92</t>
+          <t>-0,41</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,31</t>
+          <t>1,51</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>2,72</t>
+          <t>5,48</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>1,66</t>
+          <t>-0,51</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>1,73</t>
+          <t>-0,5</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>1,69</t>
+          <t>2,1</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>1,78</t>
+          <t>-0,46</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,99</t>
+          <t>0,52</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>2,23</t>
+          <t>4,08</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,12; 4,07</t>
+          <t>-1,95; 0,63</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,15; 1,79</t>
+          <t>-0,4; 3,67</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,69; 10,23</t>
+          <t>1,01; 14,76</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,62; 3,68</t>
+          <t>-2,21; 0,8</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,58; 3,46</t>
+          <t>-2,16; 0,8</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,24</t>
+          <t>-1,01; 10,8</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,66; 3,16</t>
+          <t>-1,59; 0,47</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,11; 2,2</t>
+          <t>-0,71; 1,92</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,17; 6,31</t>
+          <t>0,91; 10,18</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>274,12%</t>
+          <t>-43,53%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>44,42%</t>
+          <t>159,09%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>388,82%</t>
+          <t>577,94%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-45,88%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-45,09%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>190,75%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>489,17%</t>
+          <t>-44,83%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>272,86%</t>
+          <t>50,72%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>612,23%</t>
+          <t>398,18%</t>
         </is>
       </c>
     </row>
@@ -1223,17 +1223,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-53,96; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-65,03; 1133,57</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,98; —</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1253,17 +1253,17 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>21,54; —</t>
+          <t>-89,68; 126,19</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-32,01; —</t>
+          <t>-53,49; 409,76</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>25,56; 2048,62</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP18A05-Edad-trans_camb.xlsx
+++ b/data/trans_camb/IP18A05-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,28</t>
+          <t>0,46</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,64</t>
+          <t>1,09</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1,41</t>
+          <t>2,19</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-0,36</t>
+          <t>-0,7</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,55</t>
+          <t>-0,27</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>3,41</t>
+          <t>1,86</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-0,04</t>
+          <t>-0,11</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,59</t>
+          <t>0,41</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>2,28</t>
+          <t>2,03</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,7</t>
+          <t>0,0; 2,77</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,24</t>
+          <t>0,0; 3,84</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,0</t>
+          <t>0,0; 10,69</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,69; 0,6</t>
+          <t>-4,01; 0,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-0,97; 2,44</t>
+          <t>-2,81; 0,86</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-0,62; 13,4</t>
+          <t>-1,39; 11,02</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-0,72; 0,44</t>
+          <t>-1,46; 0,46</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-0,17; 1,83</t>
+          <t>-0,74; 1,46</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,05; 7,07</t>
+          <t>-0,34; 7,09</t>
         </is>
       </c>
     </row>
@@ -753,32 +753,32 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-54,61%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>82,79%</t>
+          <t>-38,73%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>515,89%</t>
+          <t>266,36%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-11,64%</t>
+          <t>-32,33%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>179,02%</t>
+          <t>120,15%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>694,3%</t>
+          <t>598,23%</t>
         </is>
       </c>
     </row>
@@ -826,7 +826,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -838,7 +838,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,92</t>
+          <t>1,14</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,31</t>
+          <t>0,37</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>2,72</t>
+          <t>3,4</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,66</t>
+          <t>0,68</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>1,73</t>
+          <t>1,64</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>1,69</t>
+          <t>3,65</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>1,78</t>
+          <t>0,93</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,99</t>
+          <t>0,96</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>2,23</t>
+          <t>3,53</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,12; 4,07</t>
+          <t>-0,27; 3,01</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,15; 1,79</t>
+          <t>-0,89; 1,83</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,69; 10,23</t>
+          <t>-0,6; 11,91</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,62; 3,68</t>
+          <t>-0,22; 2,18</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,58; 3,46</t>
+          <t>0,39; 4,28</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,24</t>
+          <t>-0,26; 12,69</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,66; 3,16</t>
+          <t>0,03; 2,08</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,11; 2,2</t>
+          <t>0,01; 2,26</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,17; 6,31</t>
+          <t>0,67; 8,84</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>274,12%</t>
+          <t>191,54%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>44,42%</t>
+          <t>62,91%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>388,82%</t>
+          <t>573,54%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>263,0%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>636,46%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>1416,4%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>489,17%</t>
+          <t>219,03%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>272,86%</t>
+          <t>224,88%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>612,23%</t>
+          <t>828,25%</t>
         </is>
       </c>
     </row>
@@ -1007,7 +1007,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-53,96; —</t>
+          <t>-69,41; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -1037,12 +1037,12 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>21,54; —</t>
+          <t>-34,28; 1483,81</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-32,01; —</t>
+          <t>-46,56; 1504,95</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1054,7 +1054,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>8-11</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>0,19</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
           <t>-0,41</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>1,51</t>
-        </is>
-      </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>5,48</t>
+          <t>4,32</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-0,51</t>
+          <t>0,92</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-0,5</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>2,1</t>
+          <t>1,24</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-0,46</t>
+          <t>0,57</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,52</t>
+          <t>-0,19</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>4,08</t>
+          <t>2,88</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,95; 0,63</t>
+          <t>-2,46; 2,07</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,4; 3,67</t>
+          <t>-4,07; 0,84</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,01; 14,76</t>
+          <t>-0,83; 16,79</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,21; 0,8</t>
+          <t>-2,17; 3,67</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-2,16; 0,8</t>
+          <t>-3,13; 1,89</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-1,01; 10,8</t>
+          <t>-2,18; 11,13</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-1,59; 0,47</t>
+          <t>-1,36; 2,19</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-0,71; 1,92</t>
+          <t>-2,17; 1,0</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,91; 10,18</t>
+          <t>-0,48; 9,7</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-43,53%</t>
+          <t>22,78%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>159,09%</t>
+          <t>-49,15%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>577,94%</t>
+          <t>519,73%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-45,88%</t>
+          <t>63,63%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-45,09%</t>
+          <t>0,28%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>190,75%</t>
+          <t>86,02%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-44,83%</t>
+          <t>50,73%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>50,72%</t>
+          <t>-16,61%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>398,18%</t>
+          <t>256,41%</t>
         </is>
       </c>
     </row>
@@ -1228,17 +1228,17 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-65,03; 1133,57</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-24,98; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1253,24 +1253,24 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-89,68; 126,19</t>
+          <t>-72,32; 524,72</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-53,49; 409,76</t>
+          <t>-93,74; 460,42</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>25,56; 2048,62</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>12-15</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,55</t>
+          <t>0,12</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,86</t>
+          <t>2,86</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>3,86</t>
+          <t>4,39</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,23</t>
+          <t>-0,55</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,54</t>
+          <t>-0,04</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>2,26</t>
+          <t>1,6</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,39</t>
+          <t>-0,2</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,7</t>
+          <t>1,38</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>3,15</t>
+          <t>3,35</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,18; 1,46</t>
+          <t>-1,28; 1,76</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,04; 1,94</t>
+          <t>0,68; 6,92</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>1,44; 9,57</t>
+          <t>-0,58; 18,35</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,65; 1,02</t>
+          <t>-2,75; 0,0</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-0,25; 1,48</t>
+          <t>-1,66; 1,03</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,26; 6,28</t>
+          <t>-1,1; 10,64</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,24; 0,98</t>
+          <t>-1,27; 0,64</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0,08; 1,36</t>
+          <t>-0,01; 3,27</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>1,45; 5,92</t>
+          <t>0,27; 12,02</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>97,26%</t>
+          <t>16,63%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>151,78%</t>
+          <t>406,69%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>683,05%</t>
+          <t>623,9%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>36,36%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>86,94%</t>
+          <t>-7,53%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>363,78%</t>
+          <t>291,83%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>66,28%</t>
+          <t>-32,49%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>118,57%</t>
+          <t>220,01%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>531,92%</t>
+          <t>532,61%</t>
         </is>
       </c>
     </row>
@@ -1439,58 +1439,282 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-32,26; 697,45</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-24,92; 732,12</t>
+          <t>-62,46; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>81,49; 3394,64</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-64,21; 378,1</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-45,36; 642,13</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-22,86; 2108,11</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-31,19; 297,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-1,76; 386,27</t>
+          <t>-47,57; 1676,13</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>142,57; 1431,72</t>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>0,55</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>0,86</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>3,86</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>0,23</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>0,54</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>2,26</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>0,39</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>0,7</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>3,15</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-0,25; 1,42</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>0,05; 1,95</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>1,33; 8,41</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>-0,57; 1,01</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>-0,25; 1,49</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>0,19; 5,65</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-0,19; 0,98</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>0,08; 1,35</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>1,42; 6,15</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>97,26%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>151,78%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>683,05%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>36,36%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>86,94%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>363,78%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>66,28%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>118,57%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>531,92%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-36,18; 579,81</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-17,47; 1013,97</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>105,27; 3302,63</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>-63,31; 415,36</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>-35,59; 622,39</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-27,45; 1765,15</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-25,99; 296,07</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-2,07; 395,12</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>146,33; 1574,64</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>

--- a/data/trans_camb/IP18A05-Edad-trans_camb.xlsx
+++ b/data/trans_camb/IP18A05-Edad-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,77</t>
+          <t>0,0; 2,3</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,84</t>
+          <t>0,0; 3,74</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,69</t>
+          <t>0,0; 12,42</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-4,01; 0,0</t>
+          <t>-4,13; 0,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-2,81; 0,86</t>
+          <t>-3,03; 0,86</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-1,39; 11,02</t>
+          <t>-1,38; 10,84</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-1,46; 0,46</t>
+          <t>-1,37; 0,46</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-0,74; 1,46</t>
+          <t>-0,8; 1,33</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-0,34; 7,09</t>
+          <t>-0,34; 7,64</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,27; 3,01</t>
+          <t>-0,29; 2,82</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,89; 1,83</t>
+          <t>-0,9; 1,81</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,6; 11,91</t>
+          <t>-0,3; 12,85</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,22; 2,18</t>
+          <t>-0,18; 2,47</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,39; 4,28</t>
+          <t>0,36; 4,13</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-0,26; 12,69</t>
+          <t>-0,26; 11,61</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,03; 2,08</t>
+          <t>0,04; 2,1</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,01; 2,26</t>
+          <t>0,1; 2,37</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,67; 8,84</t>
+          <t>0,59; 9,29</t>
         </is>
       </c>
     </row>
@@ -1007,7 +1007,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-69,41; —</t>
+          <t>-86,76; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -1037,12 +1037,12 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-34,28; 1483,81</t>
+          <t>-30,15; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-46,56; 1504,95</t>
+          <t>-28,64; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,46; 2,07</t>
+          <t>-2,43; 2,05</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,07; 0,84</t>
+          <t>-3,31; 0,84</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,83; 16,79</t>
+          <t>-0,83; 15,49</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,17; 3,67</t>
+          <t>-2,2; 3,57</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-3,13; 1,89</t>
+          <t>-3,01; 1,85</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-2,18; 11,13</t>
+          <t>-2,17; 9,86</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-1,36; 2,19</t>
+          <t>-1,36; 2,34</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-2,17; 1,0</t>
+          <t>-2,0; 0,96</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-0,48; 9,7</t>
+          <t>-0,37; 9,89</t>
         </is>
       </c>
     </row>
@@ -1238,7 +1238,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1253,12 +1253,12 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-72,32; 524,72</t>
+          <t>-70,11; 869,45</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-93,74; 460,42</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1333,22 +1333,22 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,28; 1,76</t>
+          <t>-1,25; 1,71</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,68; 6,92</t>
+          <t>0,73; 7,3</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,58; 18,35</t>
+          <t>-0,29; 18,16</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-2,75; 0,0</t>
+          <t>-3,14; 0,0</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1358,22 +1358,22 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-1,1; 10,64</t>
+          <t>-1,1; 9,28</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-1,27; 0,64</t>
+          <t>-1,15; 0,63</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-0,01; 3,27</t>
+          <t>-0,1; 3,27</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0,27; 12,02</t>
+          <t>0,01; 11,53</t>
         </is>
       </c>
     </row>
@@ -1444,7 +1444,7 @@
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-62,46; —</t>
+          <t>-55,8; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
@@ -1474,7 +1474,7 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-47,57; 1676,13</t>
+          <t>-58,01; —</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-0,25; 1,42</t>
+          <t>-0,26; 1,34</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>0,05; 1,95</t>
+          <t>-0,03; 1,95</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>1,33; 8,41</t>
+          <t>1,57; 9,09</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-0,57; 1,01</t>
+          <t>-0,62; 1,0</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-0,25; 1,49</t>
+          <t>-0,36; 1,44</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>0,19; 5,65</t>
+          <t>0,2; 5,36</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-0,19; 0,98</t>
+          <t>-0,22; 0,96</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>0,08; 1,35</t>
+          <t>0,11; 1,38</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>1,42; 6,15</t>
+          <t>1,31; 6,21</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-36,18; 579,81</t>
+          <t>-39,79; 562,14</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-17,47; 1013,97</t>
+          <t>-22,74; 790,34</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>105,27; 3302,63</t>
+          <t>90,43; 3472,62</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-63,31; 415,36</t>
+          <t>-67,66; 374,22</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-35,59; 622,39</t>
+          <t>-47,56; 499,39</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-27,45; 1765,15</t>
+          <t>-24,46; 1858,32</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-25,99; 296,07</t>
+          <t>-32,65; 283,88</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-2,07; 395,12</t>
+          <t>6,95; 396,0</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>146,33; 1574,64</t>
+          <t>151,81; 1548,38</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP18A05-Edad-trans_camb.xlsx
+++ b/data/trans_camb/IP18A05-Edad-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -537,14 +537,14 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="G1" s="3" t="n"/>
@@ -632,32 +632,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>-0,7</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>-0,27</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>1,85</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>0,46</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="G4" s="2" t="inlineStr">
         <is>
           <t>1,09</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>2,19</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-0,7</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>-0,27</t>
-        </is>
-      </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>1,86</t>
+          <t>2,15</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>2,03</t>
+          <t>2,0</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>-4,46; 0,0</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>-2,85; 0,86</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>-1,39; 11,88</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
           <t>0,0; 2,3</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 3,74</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 12,42</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-4,13; 0,0</t>
-        </is>
-      </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-3,03; 0,86</t>
+          <t>0,0; 3,56</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-1,38; 10,84</t>
+          <t>0,0; 10,1</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-1,37; 0,46</t>
+          <t>-1,12; 0,46</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-0,8; 1,33</t>
+          <t>-0,66; 1,49</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-0,34; 7,64</t>
+          <t>-0,34; 6,89</t>
         </is>
       </c>
     </row>
@@ -738,34 +738,34 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>-100,0%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>-38,73%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>265,14%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
+      <c r="G6" s="2" t="inlineStr">
         <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="H6" s="2" t="inlineStr">
         <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>-38,73%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>266,36%</t>
-        </is>
-      </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
           <t>-32,33%</t>
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>598,23%</t>
+          <t>588,16%</t>
         </is>
       </c>
     </row>
@@ -848,32 +848,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>0,68</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>1,64</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>3,83</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>1,14</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="G8" s="2" t="inlineStr">
         <is>
           <t>0,37</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>3,4</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>0,68</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>1,64</t>
-        </is>
-      </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>3,65</t>
+          <t>3,3</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>3,53</t>
+          <t>3,55</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,29; 2,82</t>
+          <t>-0,19; 2,29</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,9; 1,81</t>
+          <t>0,29; 3,86</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,3; 12,85</t>
+          <t>-0,26; 13,12</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,18; 2,47</t>
+          <t>-0,33; 3,03</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,36; 4,13</t>
+          <t>-0,89; 1,92</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-0,26; 11,61</t>
+          <t>-0,59; 13,07</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,04; 2,1</t>
+          <t>0,11; 2,19</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,1; 2,37</t>
+          <t>0,05; 2,33</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,59; 9,29</t>
+          <t>0,66; 9,74</t>
         </is>
       </c>
     </row>
@@ -954,32 +954,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>263,0%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>636,46%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>1483,72%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>191,54%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="G10" s="2" t="inlineStr">
         <is>
           <t>62,91%</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>573,54%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>263,0%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>636,46%</t>
-        </is>
-      </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>1416,4%</t>
+          <t>555,33%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>828,25%</t>
+          <t>833,11%</t>
         </is>
       </c>
     </row>
@@ -1007,7 +1007,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-86,76; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -1037,12 +1037,12 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-30,15; —</t>
+          <t>-34,85; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-28,64; —</t>
+          <t>-38,65; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1064,32 +1064,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>0,92</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>1,07</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>0,19</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
+      <c r="G12" s="2" t="inlineStr">
         <is>
           <t>-0,41</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>4,32</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>0,92</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>1,24</t>
+          <t>4,38</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>2,88</t>
+          <t>2,85</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,43; 2,05</t>
+          <t>-2,19; 3,52</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,31; 0,84</t>
+          <t>-2,89; 1,91</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,83; 15,49</t>
+          <t>-2,18; 8,81</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,2; 3,57</t>
+          <t>-2,72; 2,02</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-3,01; 1,85</t>
+          <t>-3,64; 0,84</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-2,17; 9,86</t>
+          <t>-0,82; 16,96</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-1,36; 2,34</t>
+          <t>-1,44; 2,23</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-2,0; 0,96</t>
+          <t>-2,06; 1,01</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-0,37; 9,89</t>
+          <t>-0,31; 10,0</t>
         </is>
       </c>
     </row>
@@ -1170,32 +1170,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>63,63%</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>0,28%</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>74,2%</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
           <t>22,78%</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
+      <c r="G14" s="2" t="inlineStr">
         <is>
           <t>-49,15%</t>
         </is>
       </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>519,73%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>63,63%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>0,28%</t>
-        </is>
-      </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>86,02%</t>
+          <t>526,94%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>256,41%</t>
+          <t>253,6%</t>
         </is>
       </c>
     </row>
@@ -1228,7 +1228,7 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; —</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1253,12 +1253,12 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-70,11; 869,45</t>
+          <t>-76,46; 690,98</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-89,93; 363,11</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1280,32 +1280,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>-0,55</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>-0,04</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>1,65</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
           <t>0,12</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
+      <c r="G16" s="2" t="inlineStr">
         <is>
           <t>2,86</t>
         </is>
       </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>4,39</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>-0,55</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>-0,04</t>
-        </is>
-      </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>1,6</t>
+          <t>4,2</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>3,35</t>
+          <t>3,29</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,25; 1,71</t>
+          <t>-2,75; 0,0</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,73; 7,3</t>
+          <t>-1,68; 1,03</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,29; 18,16</t>
+          <t>-1,1; 9,55</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-3,14; 0,0</t>
+          <t>-1,25; 1,72</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,66; 1,03</t>
+          <t>0,65; 6,73</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-1,1; 9,28</t>
+          <t>-0,57; 17,53</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-1,15; 0,63</t>
+          <t>-1,21; 0,65</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-0,1; 3,27</t>
+          <t>-0,02; 3,2</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0,01; 11,53</t>
+          <t>0,27; 13,27</t>
         </is>
       </c>
     </row>
@@ -1386,32 +1386,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
+          <t>-100,0%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>-7,53%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>300,34%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
           <t>16,63%</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
+      <c r="G18" s="2" t="inlineStr">
         <is>
           <t>406,69%</t>
         </is>
       </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>623,9%</t>
-        </is>
-      </c>
-      <c r="F18" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="G18" s="2" t="inlineStr">
-        <is>
-          <t>-7,53%</t>
-        </is>
-      </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>291,83%</t>
+          <t>596,6%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>532,61%</t>
+          <t>522,62%</t>
         </is>
       </c>
     </row>
@@ -1444,7 +1444,7 @@
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-55,8; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-43,3; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
@@ -1474,7 +1474,7 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-58,01; —</t>
+          <t>-62,3; 2527,43</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
@@ -1496,32 +1496,32 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
+          <t>0,23</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>0,54</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>2,27</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
           <t>0,55</t>
         </is>
       </c>
-      <c r="D20" s="2" t="inlineStr">
+      <c r="G20" s="2" t="inlineStr">
         <is>
           <t>0,86</t>
         </is>
       </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>3,86</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>0,23</t>
-        </is>
-      </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>0,54</t>
-        </is>
-      </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>2,26</t>
+          <t>3,78</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>3,15</t>
+          <t>3,12</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-0,26; 1,34</t>
+          <t>-0,65; 1,02</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-0,03; 1,95</t>
+          <t>-0,25; 1,48</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>1,57; 9,09</t>
+          <t>0,27; 6,35</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-0,62; 1,0</t>
+          <t>-0,18; 1,46</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-0,36; 1,44</t>
+          <t>-0,04; 1,94</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>0,2; 5,36</t>
+          <t>1,37; 9,37</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-0,22; 0,96</t>
+          <t>-0,24; 0,98</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>0,11; 1,38</t>
+          <t>0,08; 1,36</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>1,31; 6,21</t>
+          <t>1,39; 5,87</t>
         </is>
       </c>
     </row>
@@ -1602,32 +1602,32 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
+          <t>36,36%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>86,94%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>365,61%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
           <t>97,26%</t>
         </is>
       </c>
-      <c r="D22" s="2" t="inlineStr">
+      <c r="G22" s="2" t="inlineStr">
         <is>
           <t>151,78%</t>
         </is>
       </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>683,05%</t>
-        </is>
-      </c>
-      <c r="F22" s="2" t="inlineStr">
-        <is>
-          <t>36,36%</t>
-        </is>
-      </c>
-      <c r="G22" s="2" t="inlineStr">
-        <is>
-          <t>86,94%</t>
-        </is>
-      </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>363,78%</t>
+          <t>669,03%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>531,92%</t>
+          <t>527,48%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-39,79; 562,14</t>
+          <t>-64,21; 378,1</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-22,74; 790,34</t>
+          <t>-45,36; 642,13</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>90,43; 3472,62</t>
+          <t>-22,99; 2083,33</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-67,66; 374,22</t>
+          <t>-32,26; 697,45</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-47,56; 499,39</t>
+          <t>-24,92; 732,12</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-24,46; 1858,32</t>
+          <t>77,9; 3292,96</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-32,65; 283,88</t>
+          <t>-31,19; 297,86</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>6,95; 396,0</t>
+          <t>-1,76; 386,27</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>151,81; 1548,38</t>
+          <t>141,78; 1424,17</t>
         </is>
       </c>
     </row>
